--- a/VersionRecords/Version 3.4.3/版本Bug和特性计划及评审表v3.4.3_磐石组.xlsx
+++ b/VersionRecords/Version 3.4.3/版本Bug和特性计划及评审表v3.4.3_磐石组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>磐石组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李傲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -231,10 +227,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>营销组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BS拨号列表拨号时间精确至秒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -316,6 +308,30 @@
     <t>1:不读快照
 2:读取快照</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoda代码合并修复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础服务组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,6 +742,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,9 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1096,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,13 +1205,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>27</v>
@@ -1211,22 +1227,22 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="13">
         <v>42592</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -1239,13 +1255,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>27</v>
@@ -1261,22 +1277,22 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="13">
         <v>42592</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -1289,13 +1305,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>27</v>
@@ -1311,22 +1327,22 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="13">
         <v>42592</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -1339,13 +1355,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
@@ -1361,22 +1377,22 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="13">
         <v>42592</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -1389,13 +1405,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
@@ -1411,22 +1427,22 @@
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="13">
         <v>42592</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -1439,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>27</v>
@@ -1461,22 +1477,22 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="13">
         <v>42592</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -1489,13 +1505,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>27</v>
@@ -1511,22 +1527,22 @@
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="13">
         <v>42592</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -1539,13 +1555,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>27</v>
@@ -1561,22 +1577,22 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="13">
         <v>42592</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -1589,13 +1605,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>27</v>
@@ -1611,22 +1627,22 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="13">
         <v>42592</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1639,13 +1655,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>27</v>
@@ -1661,22 +1677,22 @@
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="13">
         <v>42592</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -1688,20 +1704,46 @@
       <c r="A12" s="21">
         <v>13</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="13">
+        <v>42590</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="13">
+        <v>42590</v>
+      </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42592</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
@@ -5964,53 +6006,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
+      <c r="A1" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>42</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>14</v>
@@ -6019,10 +6061,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
       <c r="B4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="35"/>
@@ -6398,7 +6440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+    <sheetView topLeftCell="E2" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:M4"/>
     </sheetView>
   </sheetViews>
@@ -7239,73 +7281,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="A1" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="32" t="s">
-        <v>52</v>
-      </c>
       <c r="L3" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="33" t="s">
         <v>14</v>
@@ -7314,40 +7356,40 @@
     <row r="4" spans="1:13" s="34" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="E4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="J4" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="48" t="s">
+      <c r="K4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
